--- a/Raw_data/location_data_for_wos_db.xlsx
+++ b/Raw_data/location_data_for_wos_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA1080-3E75-DD4C-9041-F93C6376AC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5FEFF-C869-E24D-8EA7-5856B191432D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="740" windowWidth="23740" windowHeight="18380" xr2:uid="{7DB4B7B0-8D04-9C4D-8F34-A11A49669C1B}"/>
+    <workbookView xWindow="38000" yWindow="-7900" windowWidth="34380" windowHeight="26460" xr2:uid="{7DB4B7B0-8D04-9C4D-8F34-A11A49669C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="location_raw" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="2567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5872" uniqueCount="2615">
   <si>
     <t>location.code</t>
   </si>
@@ -7740,6 +7740,150 @@
   </si>
   <si>
     <t>loc-793</t>
+  </si>
+  <si>
+    <t>-35.280187</t>
+  </si>
+  <si>
+    <t>149.131034</t>
+  </si>
+  <si>
+    <t>45.420059</t>
+  </si>
+  <si>
+    <t>-75.700338</t>
+  </si>
+  <si>
+    <t>39.904215</t>
+  </si>
+  <si>
+    <t>116.407095</t>
+  </si>
+  <si>
+    <t>55.676092</t>
+  </si>
+  <si>
+    <t>12.568338</t>
+  </si>
+  <si>
+    <t>59.436953</t>
+  </si>
+  <si>
+    <t>24.753572</t>
+  </si>
+  <si>
+    <t>60.169852</t>
+  </si>
+  <si>
+    <t>24.938393</t>
+  </si>
+  <si>
+    <t>48.857547</t>
+  </si>
+  <si>
+    <t>2.351376</t>
+  </si>
+  <si>
+    <t>50.847700</t>
+  </si>
+  <si>
+    <t>4.357200</t>
+  </si>
+  <si>
+    <t>52.520005</t>
+  </si>
+  <si>
+    <t>13.404960</t>
+  </si>
+  <si>
+    <t>53.349807</t>
+  </si>
+  <si>
+    <t>-6.260307</t>
+  </si>
+  <si>
+    <t>37.550257</t>
+  </si>
+  <si>
+    <t>126.997085</t>
+  </si>
+  <si>
+    <t>31.622524</t>
+  </si>
+  <si>
+    <t>-7.989830</t>
+  </si>
+  <si>
+    <t>52.367572</t>
+  </si>
+  <si>
+    <t>4.904130</t>
+  </si>
+  <si>
+    <t>-41.292389</t>
+  </si>
+  <si>
+    <t>174.778753</t>
+  </si>
+  <si>
+    <t>59.329325</t>
+  </si>
+  <si>
+    <t>18.068583</t>
+  </si>
+  <si>
+    <t>34.722986</t>
+  </si>
+  <si>
+    <t>43.669882</t>
+  </si>
+  <si>
+    <t>51.507219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.127586</t>
+  </si>
+  <si>
+    <t>52.999981</t>
+  </si>
+  <si>
+    <t>9.000000</t>
+  </si>
+  <si>
+    <t>34.047864</t>
+  </si>
+  <si>
+    <t>100.619700</t>
+  </si>
+  <si>
+    <t>38.907188</t>
+  </si>
+  <si>
+    <t>-77.036872</t>
+  </si>
+  <si>
+    <t>-82.862807</t>
+  </si>
+  <si>
+    <t>134.999996</t>
+  </si>
+  <si>
+    <t>-25.274429</t>
+  </si>
+  <si>
+    <t>133.775079</t>
+  </si>
+  <si>
+    <t>54.525969</t>
+  </si>
+  <si>
+    <t>-105.255100</t>
+  </si>
+  <si>
+    <t>-33.922085</t>
+  </si>
+  <si>
+    <t>18.423149</t>
   </si>
 </sst>
 </file>
@@ -8221,11 +8365,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF586FE-D329-5147-97C1-F707C19E06F5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I771"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G774" sqref="G774"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E773" sqref="E773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8269,7 +8414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1940</v>
       </c>
@@ -8298,7 +8443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1941</v>
       </c>
@@ -8327,7 +8472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>1942</v>
       </c>
@@ -8356,7 +8501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1943</v>
       </c>
@@ -8385,7 +8530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>1944</v>
       </c>
@@ -8414,7 +8559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>1945</v>
       </c>
@@ -8443,7 +8588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>1946</v>
       </c>
@@ -8472,7 +8617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>1947</v>
       </c>
@@ -8501,7 +8646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1948</v>
       </c>
@@ -8530,7 +8675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>1948</v>
       </c>
@@ -8559,7 +8704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>1949</v>
       </c>
@@ -8588,7 +8733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>1950</v>
       </c>
@@ -8617,7 +8762,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>1951</v>
       </c>
@@ -8646,7 +8791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>1952</v>
       </c>
@@ -8675,7 +8820,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>1953</v>
       </c>
@@ -8704,7 +8849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>1954</v>
       </c>
@@ -8733,7 +8878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>1955</v>
       </c>
@@ -8762,7 +8907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>1956</v>
       </c>
@@ -8791,7 +8936,7 @@
         <v>-104.75749999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>1957</v>
       </c>
@@ -8820,7 +8965,7 @@
         <v>-104.89610999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>1958</v>
       </c>
@@ -8849,7 +8994,7 @@
         <v>-104.85138000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>1959</v>
       </c>
@@ -8878,7 +9023,7 @@
         <v>-104.9992</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>1960</v>
       </c>
@@ -8907,7 +9052,7 @@
         <v>-104.54083300000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>1961</v>
       </c>
@@ -8936,7 +9081,7 @@
         <v>-104.755278</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>1962</v>
       </c>
@@ -8965,7 +9110,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>1963</v>
       </c>
@@ -8994,7 +9139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>1964</v>
       </c>
@@ -9023,7 +9168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>1965</v>
       </c>
@@ -9052,7 +9197,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>1966</v>
       </c>
@@ -9081,7 +9226,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>1967</v>
       </c>
@@ -9110,7 +9255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>1968</v>
       </c>
@@ -9139,7 +9284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>1969</v>
       </c>
@@ -9168,7 +9313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>1970</v>
       </c>
@@ -9197,7 +9342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>1971</v>
       </c>
@@ -9226,7 +9371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>1972</v>
       </c>
@@ -9255,7 +9400,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>1973</v>
       </c>
@@ -9284,7 +9429,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>1974</v>
       </c>
@@ -9313,7 +9458,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>1975</v>
       </c>
@@ -9342,7 +9487,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>1976</v>
       </c>
@@ -9371,7 +9516,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>1977</v>
       </c>
@@ -9400,7 +9545,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>1978</v>
       </c>
@@ -9429,7 +9574,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>1979</v>
       </c>
@@ -9458,7 +9603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>1980</v>
       </c>
@@ -9487,7 +9632,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>1981</v>
       </c>
@@ -9516,7 +9661,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>1982</v>
       </c>
@@ -9545,7 +9690,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>1983</v>
       </c>
@@ -9574,7 +9719,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>1979</v>
       </c>
@@ -9603,7 +9748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>1963</v>
       </c>
@@ -9632,7 +9777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>1964</v>
       </c>
@@ -9661,7 +9806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>1984</v>
       </c>
@@ -9690,7 +9835,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>1985</v>
       </c>
@@ -9719,7 +9864,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>1985</v>
       </c>
@@ -9748,7 +9893,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>1985</v>
       </c>
@@ -9777,7 +9922,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>1986</v>
       </c>
@@ -9806,7 +9951,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>1987</v>
       </c>
@@ -9835,7 +9980,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>1988</v>
       </c>
@@ -9864,7 +10009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>1989</v>
       </c>
@@ -9893,7 +10038,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>1990</v>
       </c>
@@ -9922,7 +10067,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>1991</v>
       </c>
@@ -9951,7 +10096,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>1992</v>
       </c>
@@ -9980,7 +10125,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>1993</v>
       </c>
@@ -10009,7 +10154,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>1994</v>
       </c>
@@ -10038,7 +10183,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>1995</v>
       </c>
@@ -10060,8 +10205,14 @@
       <c r="G63" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H63" s="6" t="s">
+        <v>2581</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>1996</v>
       </c>
@@ -10090,7 +10241,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>1997</v>
       </c>
@@ -10119,7 +10270,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>1998</v>
       </c>
@@ -10148,7 +10299,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>1999</v>
       </c>
@@ -10177,7 +10328,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>2000</v>
       </c>
@@ -10206,7 +10357,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>2001</v>
       </c>
@@ -10235,7 +10386,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>2002</v>
       </c>
@@ -10264,7 +10415,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>2003</v>
       </c>
@@ -10293,7 +10444,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10322,7 +10473,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10351,7 +10502,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10380,7 +10531,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10409,7 +10560,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10438,7 +10589,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10467,7 +10618,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10496,7 +10647,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10525,7 +10676,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>2005</v>
       </c>
@@ -10554,7 +10705,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>2006</v>
       </c>
@@ -10583,7 +10734,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10612,7 +10763,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>2004</v>
       </c>
@@ -10641,7 +10792,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>2007</v>
       </c>
@@ -10670,7 +10821,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>2008</v>
       </c>
@@ -10699,7 +10850,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>2009</v>
       </c>
@@ -10728,7 +10879,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>2010</v>
       </c>
@@ -10757,7 +10908,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>2011</v>
       </c>
@@ -10786,7 +10937,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>2012</v>
       </c>
@@ -10815,7 +10966,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>1981</v>
       </c>
@@ -10844,7 +10995,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>2013</v>
       </c>
@@ -10873,7 +11024,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>2014</v>
       </c>
@@ -10902,7 +11053,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>2015</v>
       </c>
@@ -10931,7 +11082,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>2016</v>
       </c>
@@ -10960,7 +11111,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>2017</v>
       </c>
@@ -10989,7 +11140,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>2018</v>
       </c>
@@ -11018,7 +11169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>2019</v>
       </c>
@@ -11047,7 +11198,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>2020</v>
       </c>
@@ -11076,7 +11227,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>2021</v>
       </c>
@@ -11105,7 +11256,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>2022</v>
       </c>
@@ -11134,7 +11285,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>2023</v>
       </c>
@@ -11163,7 +11314,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>2024</v>
       </c>
@@ -11192,7 +11343,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>2025</v>
       </c>
@@ -11221,7 +11372,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>2026</v>
       </c>
@@ -11250,7 +11401,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>2027</v>
       </c>
@@ -11279,7 +11430,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>2028</v>
       </c>
@@ -11308,7 +11459,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>2029</v>
       </c>
@@ -11337,7 +11488,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>2030</v>
       </c>
@@ -11366,7 +11517,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>2031</v>
       </c>
@@ -11395,7 +11546,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>2032</v>
       </c>
@@ -11424,7 +11575,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>2033</v>
       </c>
@@ -11453,7 +11604,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>2034</v>
       </c>
@@ -11482,7 +11633,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>2035</v>
       </c>
@@ -11511,7 +11662,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>2036</v>
       </c>
@@ -11540,7 +11691,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>2037</v>
       </c>
@@ -11562,8 +11713,14 @@
       <c r="G115" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H115" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>2038</v>
       </c>
@@ -11592,7 +11749,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>2039</v>
       </c>
@@ -11621,7 +11778,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>1981</v>
       </c>
@@ -11650,7 +11807,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>2040</v>
       </c>
@@ -11679,7 +11836,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>2041</v>
       </c>
@@ -11708,7 +11865,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>2042</v>
       </c>
@@ -11737,7 +11894,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>2043</v>
       </c>
@@ -11766,7 +11923,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>2044</v>
       </c>
@@ -11795,7 +11952,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>2045</v>
       </c>
@@ -11824,7 +11981,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>2046</v>
       </c>
@@ -11853,7 +12010,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>2047</v>
       </c>
@@ -11882,7 +12039,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>2048</v>
       </c>
@@ -11911,7 +12068,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>2049</v>
       </c>
@@ -11940,7 +12097,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>1987</v>
       </c>
@@ -11969,7 +12126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>2050</v>
       </c>
@@ -11998,7 +12155,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>2051</v>
       </c>
@@ -12027,7 +12184,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>2052</v>
       </c>
@@ -12056,7 +12213,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>2053</v>
       </c>
@@ -12085,7 +12242,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>2054</v>
       </c>
@@ -12114,7 +12271,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>2055</v>
       </c>
@@ -12143,7 +12300,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>2056</v>
       </c>
@@ -12172,7 +12329,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>1979</v>
       </c>
@@ -12201,7 +12358,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>2057</v>
       </c>
@@ -12230,7 +12387,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>2058</v>
       </c>
@@ -12259,7 +12416,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>2059</v>
       </c>
@@ -12288,7 +12445,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>1979</v>
       </c>
@@ -12317,7 +12474,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>2060</v>
       </c>
@@ -12346,7 +12503,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>2061</v>
       </c>
@@ -12375,7 +12532,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>2062</v>
       </c>
@@ -12404,7 +12561,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>2063</v>
       </c>
@@ -12433,7 +12590,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>2064</v>
       </c>
@@ -12462,7 +12619,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>2062</v>
       </c>
@@ -12491,7 +12648,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>2065</v>
       </c>
@@ -12520,7 +12677,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>2066</v>
       </c>
@@ -12549,7 +12706,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>2055</v>
       </c>
@@ -12578,7 +12735,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>2067</v>
       </c>
@@ -12607,7 +12764,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>2068</v>
       </c>
@@ -12636,7 +12793,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>2069</v>
       </c>
@@ -12665,7 +12822,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>2061</v>
       </c>
@@ -12694,7 +12851,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>2070</v>
       </c>
@@ -12723,7 +12880,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>2071</v>
       </c>
@@ -12752,7 +12909,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>2022</v>
       </c>
@@ -12781,7 +12938,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>2067</v>
       </c>
@@ -12810,7 +12967,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>2072</v>
       </c>
@@ -12839,7 +12996,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>2073</v>
       </c>
@@ -12868,7 +13025,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>1981</v>
       </c>
@@ -12897,7 +13054,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>2074</v>
       </c>
@@ -12926,7 +13083,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>2075</v>
       </c>
@@ -12955,7 +13112,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>2055</v>
       </c>
@@ -12984,7 +13141,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>2076</v>
       </c>
@@ -13013,7 +13170,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>2077</v>
       </c>
@@ -13042,7 +13199,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>2078</v>
       </c>
@@ -13071,7 +13228,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>2079</v>
       </c>
@@ -13100,7 +13257,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>2080</v>
       </c>
@@ -13129,7 +13286,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>1981</v>
       </c>
@@ -13158,7 +13315,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>2081</v>
       </c>
@@ -13187,7 +13344,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>2082</v>
       </c>
@@ -13216,7 +13373,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>2083</v>
       </c>
@@ -13245,7 +13402,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>2084</v>
       </c>
@@ -13274,7 +13431,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>2085</v>
       </c>
@@ -13303,7 +13460,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>2086</v>
       </c>
@@ -13332,7 +13489,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>2087</v>
       </c>
@@ -13361,7 +13518,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>2088</v>
       </c>
@@ -13390,7 +13547,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>2089</v>
       </c>
@@ -13419,7 +13576,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>2090</v>
       </c>
@@ -13448,7 +13605,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>2091</v>
       </c>
@@ -13477,7 +13634,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>2092</v>
       </c>
@@ -13506,7 +13663,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>1981</v>
       </c>
@@ -13535,7 +13692,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>2093</v>
       </c>
@@ -13564,7 +13721,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>2094</v>
       </c>
@@ -13593,7 +13750,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>1973</v>
       </c>
@@ -13622,7 +13779,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>1981</v>
       </c>
@@ -13651,7 +13808,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>2095</v>
       </c>
@@ -13680,7 +13837,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>2096</v>
       </c>
@@ -13702,8 +13859,14 @@
       <c r="G189" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H189" s="6" t="s">
+        <v>2567</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>2097</v>
       </c>
@@ -13732,7 +13895,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>2098</v>
       </c>
@@ -13761,7 +13924,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>2099</v>
       </c>
@@ -13790,7 +13953,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>2100</v>
       </c>
@@ -13819,7 +13982,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>2101</v>
       </c>
@@ -13848,7 +14011,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>2054</v>
       </c>
@@ -13877,7 +14040,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>2102</v>
       </c>
@@ -13906,7 +14069,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>2102</v>
       </c>
@@ -13935,7 +14098,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>2103</v>
       </c>
@@ -13964,7 +14127,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>2104</v>
       </c>
@@ -13993,7 +14156,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>2105</v>
       </c>
@@ -14022,7 +14185,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>2106</v>
       </c>
@@ -14051,7 +14214,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>2107</v>
       </c>
@@ -14080,7 +14243,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>2050</v>
       </c>
@@ -14109,7 +14272,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>2022</v>
       </c>
@@ -14138,7 +14301,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>2108</v>
       </c>
@@ -14167,7 +14330,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>2053</v>
       </c>
@@ -14196,7 +14359,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>2109</v>
       </c>
@@ -14225,7 +14388,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>2110</v>
       </c>
@@ -14254,7 +14417,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>2111</v>
       </c>
@@ -14283,7 +14446,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>2112</v>
       </c>
@@ -14312,7 +14475,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>2113</v>
       </c>
@@ -14341,7 +14504,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>2111</v>
       </c>
@@ -14370,7 +14533,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>2114</v>
       </c>
@@ -14399,7 +14562,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>2055</v>
       </c>
@@ -14428,7 +14591,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>2115</v>
       </c>
@@ -14457,7 +14620,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>2116</v>
       </c>
@@ -14486,7 +14649,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>2094</v>
       </c>
@@ -14515,7 +14678,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>2117</v>
       </c>
@@ -14544,7 +14707,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>2118</v>
       </c>
@@ -14573,7 +14736,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>2119</v>
       </c>
@@ -14619,7 +14782,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>2121</v>
       </c>
@@ -14648,7 +14811,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>2122</v>
       </c>
@@ -14677,7 +14840,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>2123</v>
       </c>
@@ -14706,7 +14869,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>2124</v>
       </c>
@@ -14735,7 +14898,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>2125</v>
       </c>
@@ -14764,7 +14927,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>2126</v>
       </c>
@@ -14793,7 +14956,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>2127</v>
       </c>
@@ -14822,7 +14985,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>2128</v>
       </c>
@@ -14851,7 +15014,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>2129</v>
       </c>
@@ -14880,7 +15043,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>2130</v>
       </c>
@@ -14909,7 +15072,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>2131</v>
       </c>
@@ -14938,7 +15101,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>2094</v>
       </c>
@@ -14967,7 +15130,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>2132</v>
       </c>
@@ -14996,7 +15159,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>2133</v>
       </c>
@@ -15025,7 +15188,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>2134</v>
       </c>
@@ -15054,7 +15217,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>2135</v>
       </c>
@@ -15083,7 +15246,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>2136</v>
       </c>
@@ -15112,7 +15275,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>2137</v>
       </c>
@@ -15141,7 +15304,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>2138</v>
       </c>
@@ -15170,7 +15333,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>2139</v>
       </c>
@@ -15199,7 +15362,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>2140</v>
       </c>
@@ -15228,7 +15391,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>2141</v>
       </c>
@@ -15257,7 +15420,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>2142</v>
       </c>
@@ -15286,7 +15449,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>2143</v>
       </c>
@@ -15315,7 +15478,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>2144</v>
       </c>
@@ -15344,7 +15507,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>2145</v>
       </c>
@@ -15373,7 +15536,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>2146</v>
       </c>
@@ -15402,7 +15565,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>2147</v>
       </c>
@@ -15431,7 +15594,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>2148</v>
       </c>
@@ -15460,7 +15623,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>2149</v>
       </c>
@@ -15489,7 +15652,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>2150</v>
       </c>
@@ -15518,7 +15681,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>2151</v>
       </c>
@@ -15547,7 +15710,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>2152</v>
       </c>
@@ -15576,7 +15739,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>2153</v>
       </c>
@@ -15605,7 +15768,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>2154</v>
       </c>
@@ -15634,7 +15797,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>2155</v>
       </c>
@@ -15663,7 +15826,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>2156</v>
       </c>
@@ -15692,7 +15855,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>2157</v>
       </c>
@@ -15721,7 +15884,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>2158</v>
       </c>
@@ -15767,7 +15930,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>1981</v>
       </c>
@@ -15796,7 +15959,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>2159</v>
       </c>
@@ -15825,7 +15988,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>2054</v>
       </c>
@@ -15854,7 +16017,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>2054</v>
       </c>
@@ -15883,7 +16046,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>2095</v>
       </c>
@@ -15912,7 +16075,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>2160</v>
       </c>
@@ -15941,7 +16104,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>2161</v>
       </c>
@@ -15970,7 +16133,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>2162</v>
       </c>
@@ -15999,7 +16162,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>2163</v>
       </c>
@@ -16028,7 +16191,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>2022</v>
       </c>
@@ -16057,7 +16220,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>2164</v>
       </c>
@@ -16086,7 +16249,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>2165</v>
       </c>
@@ -16115,7 +16278,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>2166</v>
       </c>
@@ -16144,7 +16307,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>2040</v>
       </c>
@@ -16173,7 +16336,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>2167</v>
       </c>
@@ -16219,7 +16382,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>2167</v>
       </c>
@@ -16248,7 +16411,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>2168</v>
       </c>
@@ -16277,7 +16440,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>2169</v>
       </c>
@@ -16306,7 +16469,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>2170</v>
       </c>
@@ -16335,7 +16498,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>2171</v>
       </c>
@@ -16364,7 +16527,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>2172</v>
       </c>
@@ -16393,7 +16556,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>2173</v>
       </c>
@@ -16422,7 +16585,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>2174</v>
       </c>
@@ -16451,7 +16614,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>2175</v>
       </c>
@@ -16497,7 +16660,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>2176</v>
       </c>
@@ -16526,7 +16689,7 @@
         <v>117.573066</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>2177</v>
       </c>
@@ -16545,8 +16708,14 @@
       <c r="G289" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H289" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I289" s="6" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>2178</v>
       </c>
@@ -16568,8 +16737,14 @@
       <c r="G290" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H290" s="6" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I290" s="6" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>2179</v>
       </c>
@@ -16598,7 +16773,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>2180</v>
       </c>
@@ -16627,7 +16802,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>2069</v>
       </c>
@@ -16656,7 +16831,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>1973</v>
       </c>
@@ -16685,7 +16860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>2042</v>
       </c>
@@ -16714,7 +16889,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>2181</v>
       </c>
@@ -16743,7 +16918,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
         <v>2182</v>
       </c>
@@ -16772,7 +16947,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>2183</v>
       </c>
@@ -16794,8 +16969,14 @@
       <c r="G298" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H298" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I298" s="6" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>2184</v>
       </c>
@@ -16824,7 +17005,7 @@
         <v>36.568610999999997</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
         <v>2185</v>
       </c>
@@ -16853,7 +17034,7 @@
         <v>39.080280000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>2050</v>
       </c>
@@ -16882,7 +17063,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>2186</v>
       </c>
@@ -16911,7 +17092,7 @@
         <v>-106.292778</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>2187</v>
       </c>
@@ -16940,7 +17121,7 @@
         <v>-106.060137</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
         <v>2188</v>
       </c>
@@ -16969,7 +17150,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
         <v>2102</v>
       </c>
@@ -16998,7 +17179,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
         <v>2189</v>
       </c>
@@ -17027,7 +17208,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>2190</v>
       </c>
@@ -17056,7 +17237,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
         <v>2191</v>
       </c>
@@ -17102,7 +17283,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>2093</v>
       </c>
@@ -17131,7 +17312,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>2022</v>
       </c>
@@ -17160,7 +17341,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>2192</v>
       </c>
@@ -17189,7 +17370,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>2193</v>
       </c>
@@ -17218,7 +17399,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>2194</v>
       </c>
@@ -17247,7 +17428,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>2195</v>
       </c>
@@ -17276,7 +17457,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>2196</v>
       </c>
@@ -17305,7 +17486,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>2183</v>
       </c>
@@ -17326,6 +17507,12 @@
       </c>
       <c r="G317" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="H317" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I317" s="6" t="s">
+        <v>2578</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -17345,7 +17532,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>1981</v>
       </c>
@@ -17374,7 +17561,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>2197</v>
       </c>
@@ -17403,7 +17590,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>2198</v>
       </c>
@@ -17432,7 +17619,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
         <v>2199</v>
       </c>
@@ -17461,7 +17648,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
         <v>2200</v>
       </c>
@@ -17490,7 +17677,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>2201</v>
       </c>
@@ -17519,7 +17706,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>2202</v>
       </c>
@@ -17548,7 +17735,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>2203</v>
       </c>
@@ -17577,7 +17764,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>2204</v>
       </c>
@@ -17623,7 +17810,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>2205</v>
       </c>
@@ -17652,7 +17839,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
         <v>2067</v>
       </c>
@@ -17681,7 +17868,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>2206</v>
       </c>
@@ -17710,7 +17897,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
         <v>2207</v>
       </c>
@@ -17739,7 +17926,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>2208</v>
       </c>
@@ -17768,7 +17955,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
         <v>2209</v>
       </c>
@@ -17797,7 +17984,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>2210</v>
       </c>
@@ -17826,7 +18013,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
         <v>2211</v>
       </c>
@@ -17855,7 +18042,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>2212</v>
       </c>
@@ -17877,8 +18064,14 @@
       <c r="G337" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H337" s="6" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I337" s="6" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>2213</v>
       </c>
@@ -17907,7 +18100,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>2214</v>
       </c>
@@ -17929,8 +18122,14 @@
       <c r="G339" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H339" s="6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I339" s="6" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>2215</v>
       </c>
@@ -17949,8 +18148,14 @@
       <c r="G340" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H340" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I340" s="6" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>2216</v>
       </c>
@@ -17972,8 +18177,14 @@
       <c r="G341" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H341" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="I341" s="6" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>2217</v>
       </c>
@@ -18002,7 +18213,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>2218</v>
       </c>
@@ -18021,8 +18232,14 @@
       <c r="G343" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H343" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I343" s="6" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>2219</v>
       </c>
@@ -18041,8 +18258,14 @@
       <c r="G344" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H344" s="6" t="s">
+        <v>2603</v>
+      </c>
+      <c r="I344" s="6" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>2220</v>
       </c>
@@ -18071,7 +18294,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
         <v>2221</v>
       </c>
@@ -18117,7 +18340,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
         <v>2222</v>
       </c>
@@ -18146,7 +18369,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
         <v>2223</v>
       </c>
@@ -18175,7 +18398,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
         <v>2224</v>
       </c>
@@ -18197,8 +18420,14 @@
       <c r="G350" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H350" s="6" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I350" s="6" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>2225</v>
       </c>
@@ -18227,7 +18456,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
         <v>2226</v>
       </c>
@@ -18256,7 +18485,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
         <v>2227</v>
       </c>
@@ -18285,7 +18514,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>2228</v>
       </c>
@@ -18314,7 +18543,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>2229</v>
       </c>
@@ -18343,7 +18572,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>2230</v>
       </c>
@@ -18372,7 +18601,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>2231</v>
       </c>
@@ -18401,7 +18630,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>2232</v>
       </c>
@@ -18430,7 +18659,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>2093</v>
       </c>
@@ -18476,7 +18705,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>2214</v>
       </c>
@@ -18497,6 +18726,12 @@
       </c>
       <c r="G361" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="H361" s="6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I361" s="6" t="s">
+        <v>2606</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -18516,7 +18751,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>2053</v>
       </c>
@@ -18545,7 +18780,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>2233</v>
       </c>
@@ -18574,7 +18809,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>2234</v>
       </c>
@@ -18620,7 +18855,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>2214</v>
       </c>
@@ -18641,6 +18876,12 @@
       </c>
       <c r="G367" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="H367" s="6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I367" s="6" t="s">
+        <v>2606</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
@@ -18660,7 +18901,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>2235</v>
       </c>
@@ -18682,8 +18923,14 @@
       <c r="G369" s="5" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H369" s="6" t="s">
+        <v>2589</v>
+      </c>
+      <c r="I369" s="6" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
         <v>2236</v>
       </c>
@@ -18712,7 +18959,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>2237</v>
       </c>
@@ -18741,7 +18988,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
         <v>2238</v>
       </c>
@@ -18770,7 +19017,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>2239</v>
       </c>
@@ -18799,7 +19046,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>2240</v>
       </c>
@@ -18828,7 +19075,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>2241</v>
       </c>
@@ -18857,7 +19104,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
         <v>2242</v>
       </c>
@@ -18886,7 +19133,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
         <v>2243</v>
       </c>
@@ -18915,7 +19162,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
         <v>2094</v>
       </c>
@@ -18944,7 +19191,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
         <v>2069</v>
       </c>
@@ -18973,7 +19220,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
         <v>2244</v>
       </c>
@@ -19002,7 +19249,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
         <v>2245</v>
       </c>
@@ -19031,7 +19278,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
         <v>2246</v>
       </c>
@@ -19060,7 +19307,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>2247</v>
       </c>
@@ -19089,7 +19336,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
         <v>2248</v>
       </c>
@@ -19118,7 +19365,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>2093</v>
       </c>
@@ -19147,7 +19394,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
         <v>2249</v>
       </c>
@@ -19176,7 +19423,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
         <v>2250</v>
       </c>
@@ -19205,7 +19452,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
         <v>2050</v>
       </c>
@@ -19234,7 +19481,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>2251</v>
       </c>
@@ -19263,7 +19510,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
         <v>2252</v>
       </c>
@@ -19292,7 +19539,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
         <v>2183</v>
       </c>
@@ -19314,8 +19561,14 @@
       <c r="G391" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H391" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I391" s="6" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
         <v>2094</v>
       </c>
@@ -19379,7 +19632,7 @@
       </c>
       <c r="G394" s="8"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
         <v>2253</v>
       </c>
@@ -19425,7 +19678,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
         <v>2255</v>
       </c>
@@ -19454,7 +19707,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
         <v>2256</v>
       </c>
@@ -19473,8 +19726,14 @@
       <c r="G398" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H398" s="6" t="s">
+        <v>2611</v>
+      </c>
+      <c r="I398" s="6" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
         <v>2257</v>
       </c>
@@ -19503,7 +19762,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
         <v>2234</v>
       </c>
@@ -19532,7 +19791,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
         <v>1973</v>
       </c>
@@ -19579,7 +19838,7 @@
       </c>
       <c r="G402" s="8"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>2258</v>
       </c>
@@ -19600,6 +19859,12 @@
       </c>
       <c r="G403" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="H403" s="6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I403" s="6" t="s">
+        <v>2600</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
@@ -19619,7 +19884,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>2259</v>
       </c>
@@ -19648,7 +19913,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
         <v>2260</v>
       </c>
@@ -19677,7 +19942,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>2261</v>
       </c>
@@ -19706,7 +19971,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
         <v>2262</v>
       </c>
@@ -19735,7 +20000,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>2263</v>
       </c>
@@ -19764,7 +20029,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>2264</v>
       </c>
@@ -19793,7 +20058,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>2265</v>
       </c>
@@ -19822,7 +20087,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>2182</v>
       </c>
@@ -19851,7 +20116,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>2094</v>
       </c>
@@ -19880,7 +20145,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
         <v>2255</v>
       </c>
@@ -19909,7 +20174,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>2213</v>
       </c>
@@ -19938,7 +20203,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>2266</v>
       </c>
@@ -19967,7 +20232,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>2267</v>
       </c>
@@ -19996,7 +20261,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
         <v>2268</v>
       </c>
@@ -20025,7 +20290,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>2269</v>
       </c>
@@ -20072,7 +20337,7 @@
       </c>
       <c r="G420" s="8"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>2270</v>
       </c>
@@ -20101,7 +20366,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
         <v>2271</v>
       </c>
@@ -20130,7 +20395,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>2272</v>
       </c>
@@ -20159,7 +20424,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
         <v>2119</v>
       </c>
@@ -20188,7 +20453,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>2273</v>
       </c>
@@ -20217,7 +20482,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>2274</v>
       </c>
@@ -20246,7 +20511,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>2275</v>
       </c>
@@ -20275,7 +20540,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>2276</v>
       </c>
@@ -20304,7 +20569,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>2277</v>
       </c>
@@ -20333,7 +20598,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
         <v>2278</v>
       </c>
@@ -20362,7 +20627,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>2279</v>
       </c>
@@ -20391,7 +20656,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>2280</v>
       </c>
@@ -20420,7 +20685,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>2281</v>
       </c>
@@ -20449,7 +20714,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
         <v>2282</v>
       </c>
@@ -20478,7 +20743,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>2283</v>
       </c>
@@ -20507,7 +20772,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>2284</v>
       </c>
@@ -20536,7 +20801,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>2285</v>
       </c>
@@ -20565,7 +20830,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
         <v>2181</v>
       </c>
@@ -20594,7 +20859,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>2286</v>
       </c>
@@ -20623,7 +20888,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>2287</v>
       </c>
@@ -20652,7 +20917,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>2288</v>
       </c>
@@ -20681,7 +20946,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
         <v>2289</v>
       </c>
@@ -20727,7 +20992,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
         <v>2290</v>
       </c>
@@ -20749,8 +21014,14 @@
       <c r="G444" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H444" s="6" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I444" s="6" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
         <v>2291</v>
       </c>
@@ -20779,7 +21050,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
         <v>2292</v>
       </c>
@@ -20808,7 +21079,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
         <v>2068</v>
       </c>
@@ -20837,7 +21108,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
         <v>2293</v>
       </c>
@@ -20866,7 +21137,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
         <v>2294</v>
       </c>
@@ -20887,6 +21158,12 @@
       </c>
       <c r="G449" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="H449" s="6" t="s">
+        <v>2595</v>
+      </c>
+      <c r="I449" s="6" t="s">
+        <v>2596</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
@@ -20907,7 +21184,7 @@
       </c>
       <c r="G450" s="8"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>2295</v>
       </c>
@@ -20936,7 +21213,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>2296</v>
       </c>
@@ -20965,7 +21242,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>2093</v>
       </c>
@@ -21012,7 +21289,7 @@
       </c>
       <c r="G454" s="8"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>2297</v>
       </c>
@@ -21041,7 +21318,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
         <v>2298</v>
       </c>
@@ -21070,7 +21347,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>2232</v>
       </c>
@@ -21099,7 +21376,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>2299</v>
       </c>
@@ -21128,7 +21405,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>2222</v>
       </c>
@@ -21157,7 +21434,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
         <v>2300</v>
       </c>
@@ -21204,7 +21481,7 @@
       </c>
       <c r="G461" s="8"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
         <v>2093</v>
       </c>
@@ -21233,7 +21510,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>2050</v>
       </c>
@@ -21262,7 +21539,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>2068</v>
       </c>
@@ -21291,7 +21568,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
         <v>2015</v>
       </c>
@@ -21320,7 +21597,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
         <v>2214</v>
       </c>
@@ -21341,6 +21618,12 @@
       </c>
       <c r="G466" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="H466" s="6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I466" s="6" t="s">
+        <v>2606</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
@@ -21380,7 +21663,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
         <v>2303</v>
       </c>
@@ -21409,7 +21692,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
         <v>2304</v>
       </c>
@@ -21428,8 +21711,14 @@
       <c r="G470" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H470" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I470" s="6" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5" t="s">
         <v>2305</v>
       </c>
@@ -21458,7 +21747,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
         <v>2306</v>
       </c>
@@ -21487,7 +21776,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
         <v>2242</v>
       </c>
@@ -21516,7 +21805,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
         <v>2307</v>
       </c>
@@ -21563,7 +21852,7 @@
       </c>
       <c r="G475" s="8"/>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
         <v>2308</v>
       </c>
@@ -21592,7 +21881,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
         <v>2309</v>
       </c>
@@ -21611,8 +21900,14 @@
       <c r="G477" s="5" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H477" s="6" t="s">
+        <v>2607</v>
+      </c>
+      <c r="I477" s="6" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
         <v>2291</v>
       </c>
@@ -21641,7 +21936,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
         <v>2310</v>
       </c>
@@ -21670,7 +21965,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
         <v>2311</v>
       </c>
@@ -21699,7 +21994,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
         <v>2312</v>
       </c>
@@ -21728,7 +22023,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
         <v>2313</v>
       </c>
@@ -21757,7 +22052,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
         <v>2314</v>
       </c>
@@ -21786,7 +22081,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
         <v>2315</v>
       </c>
@@ -21815,7 +22110,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
         <v>2316</v>
       </c>
@@ -21844,7 +22139,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
         <v>2317</v>
       </c>
@@ -21873,7 +22168,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>2318</v>
       </c>
@@ -21902,7 +22197,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
         <v>2319</v>
       </c>
@@ -21931,7 +22226,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
         <v>2320</v>
       </c>
@@ -21960,7 +22255,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
         <v>2321</v>
       </c>
@@ -21989,7 +22284,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
         <v>2322</v>
       </c>
@@ -22018,7 +22313,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
         <v>2323</v>
       </c>
@@ -22047,7 +22342,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
         <v>2324</v>
       </c>
@@ -22076,7 +22371,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
         <v>2053</v>
       </c>
@@ -22202,7 +22497,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
         <v>2330</v>
       </c>
@@ -22221,8 +22516,14 @@
       <c r="G500" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H500" s="6" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I500" s="6" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
         <v>2331</v>
       </c>
@@ -22241,8 +22542,14 @@
       <c r="G501" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H501" s="6" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I501" s="6" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
         <v>2309</v>
       </c>
@@ -22261,8 +22568,14 @@
       <c r="G502" s="5" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H502" s="6" t="s">
+        <v>2607</v>
+      </c>
+      <c r="I502" s="6" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>2183</v>
       </c>
@@ -22283,6 +22596,12 @@
       </c>
       <c r="G503" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="H503" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I503" s="6" t="s">
+        <v>2578</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
@@ -22319,7 +22638,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
         <v>2332</v>
       </c>
@@ -22348,7 +22667,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
         <v>2333</v>
       </c>
@@ -22377,7 +22696,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5" t="s">
         <v>2334</v>
       </c>
@@ -22406,7 +22725,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
         <v>2335</v>
       </c>
@@ -22435,7 +22754,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
         <v>2336</v>
       </c>
@@ -22464,7 +22783,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
         <v>2337</v>
       </c>
@@ -22493,7 +22812,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5" t="s">
         <v>2338</v>
       </c>
@@ -22522,7 +22841,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
         <v>2339</v>
       </c>
@@ -22551,7 +22870,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
         <v>2340</v>
       </c>
@@ -22580,7 +22899,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
         <v>2341</v>
       </c>
@@ -22609,7 +22928,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
         <v>2342</v>
       </c>
@@ -22638,7 +22957,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
         <v>2343</v>
       </c>
@@ -22667,7 +22986,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5" t="s">
         <v>2344</v>
       </c>
@@ -22696,7 +23015,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
         <v>2345</v>
       </c>
@@ -22725,7 +23044,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5" t="s">
         <v>2346</v>
       </c>
@@ -22754,7 +23073,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
         <v>2347</v>
       </c>
@@ -22783,7 +23102,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
         <v>2348</v>
       </c>
@@ -22812,7 +23131,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
         <v>2349</v>
       </c>
@@ -22841,7 +23160,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
         <v>2350</v>
       </c>
@@ -22870,7 +23189,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
         <v>2351</v>
       </c>
@@ -22899,7 +23218,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
         <v>2352</v>
       </c>
@@ -22928,7 +23247,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
         <v>2353</v>
       </c>
@@ -22957,7 +23276,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
         <v>2354</v>
       </c>
@@ -22986,7 +23305,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
         <v>2355</v>
       </c>
@@ -23015,7 +23334,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5" t="s">
         <v>2356</v>
       </c>
@@ -23044,7 +23363,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
         <v>2357</v>
       </c>
@@ -23073,7 +23392,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
         <v>2358</v>
       </c>
@@ -23102,7 +23421,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
         <v>2359</v>
       </c>
@@ -23131,7 +23450,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
         <v>2360</v>
       </c>
@@ -23160,7 +23479,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5" t="s">
         <v>2361</v>
       </c>
@@ -23189,7 +23508,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5" t="s">
         <v>2362</v>
       </c>
@@ -23218,7 +23537,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5" t="s">
         <v>2363</v>
       </c>
@@ -23247,7 +23566,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5" t="s">
         <v>2364</v>
       </c>
@@ -23276,7 +23595,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5" t="s">
         <v>2365</v>
       </c>
@@ -23305,7 +23624,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5" t="s">
         <v>2366</v>
       </c>
@@ -23334,7 +23653,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
         <v>2367</v>
       </c>
@@ -23363,7 +23682,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5" t="s">
         <v>2368</v>
       </c>
@@ -23392,7 +23711,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>2369</v>
       </c>
@@ -23421,7 +23740,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
         <v>2370</v>
       </c>
@@ -23450,7 +23769,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5" t="s">
         <v>2371</v>
       </c>
@@ -23479,7 +23798,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5" t="s">
         <v>2372</v>
       </c>
@@ -23508,7 +23827,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
         <v>2373</v>
       </c>
@@ -23537,7 +23856,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5" t="s">
         <v>2374</v>
       </c>
@@ -23566,7 +23885,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5" t="s">
         <v>2375</v>
       </c>
@@ -23595,7 +23914,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5" t="s">
         <v>2376</v>
       </c>
@@ -23624,7 +23943,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5" t="s">
         <v>2377</v>
       </c>
@@ -23653,7 +23972,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5" t="s">
         <v>2378</v>
       </c>
@@ -23682,7 +24001,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5" t="s">
         <v>2379</v>
       </c>
@@ -23711,7 +24030,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5" t="s">
         <v>2380</v>
       </c>
@@ -23740,7 +24059,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5" t="s">
         <v>2381</v>
       </c>
@@ -23769,7 +24088,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5" t="s">
         <v>2382</v>
       </c>
@@ -23798,7 +24117,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>2383</v>
       </c>
@@ -23827,7 +24146,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5" t="s">
         <v>2384</v>
       </c>
@@ -23856,7 +24175,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5" t="s">
         <v>2385</v>
       </c>
@@ -23885,7 +24204,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5" t="s">
         <v>2386</v>
       </c>
@@ -23914,7 +24233,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5" t="s">
         <v>2387</v>
       </c>
@@ -23943,7 +24262,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5" t="s">
         <v>2388</v>
       </c>
@@ -23972,7 +24291,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5" t="s">
         <v>2389</v>
       </c>
@@ -24001,7 +24320,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5" t="s">
         <v>2390</v>
       </c>
@@ -24030,7 +24349,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5" t="s">
         <v>2391</v>
       </c>
@@ -24059,7 +24378,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5" t="s">
         <v>2392</v>
       </c>
@@ -24088,7 +24407,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5" t="s">
         <v>2393</v>
       </c>
@@ -24117,7 +24436,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5" t="s">
         <v>2394</v>
       </c>
@@ -24146,7 +24465,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>2395</v>
       </c>
@@ -24175,7 +24494,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5" t="s">
         <v>2396</v>
       </c>
@@ -24204,7 +24523,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5" t="s">
         <v>2397</v>
       </c>
@@ -24233,7 +24552,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5" t="s">
         <v>2398</v>
       </c>
@@ -24262,7 +24581,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5" t="s">
         <v>2399</v>
       </c>
@@ -24291,7 +24610,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="5" t="s">
         <v>2400</v>
       </c>
@@ -24320,7 +24639,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5" t="s">
         <v>2401</v>
       </c>
@@ -24349,7 +24668,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5" t="s">
         <v>2402</v>
       </c>
@@ -24378,7 +24697,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5" t="s">
         <v>2403</v>
       </c>
@@ -24407,7 +24726,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5" t="s">
         <v>2404</v>
       </c>
@@ -24436,7 +24755,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5" t="s">
         <v>2405</v>
       </c>
@@ -24465,7 +24784,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5" t="s">
         <v>2406</v>
       </c>
@@ -24494,7 +24813,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5" t="s">
         <v>2407</v>
       </c>
@@ -24523,7 +24842,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5" t="s">
         <v>2408</v>
       </c>
@@ -24552,7 +24871,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5" t="s">
         <v>2409</v>
       </c>
@@ -24581,7 +24900,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5" t="s">
         <v>2410</v>
       </c>
@@ -24610,7 +24929,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5" t="s">
         <v>2411</v>
       </c>
@@ -24639,7 +24958,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5" t="s">
         <v>2412</v>
       </c>
@@ -24668,7 +24987,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
         <v>2413</v>
       </c>
@@ -24697,7 +25016,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5" t="s">
         <v>2414</v>
       </c>
@@ -24726,7 +25045,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5" t="s">
         <v>2381</v>
       </c>
@@ -24755,7 +25074,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5" t="s">
         <v>2415</v>
       </c>
@@ -24784,7 +25103,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>2416</v>
       </c>
@@ -24813,7 +25132,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5" t="s">
         <v>2417</v>
       </c>
@@ -24842,7 +25161,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5" t="s">
         <v>2418</v>
       </c>
@@ -24871,7 +25190,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5" t="s">
         <v>2419</v>
       </c>
@@ -24900,7 +25219,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5" t="s">
         <v>2420</v>
       </c>
@@ -24929,7 +25248,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5" t="s">
         <v>2421</v>
       </c>
@@ -24958,7 +25277,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5" t="s">
         <v>2422</v>
       </c>
@@ -24987,7 +25306,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5" t="s">
         <v>2423</v>
       </c>
@@ -25016,7 +25335,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5" t="s">
         <v>2424</v>
       </c>
@@ -25045,7 +25364,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5" t="s">
         <v>2398</v>
       </c>
@@ -25074,7 +25393,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5" t="s">
         <v>2425</v>
       </c>
@@ -25103,7 +25422,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5" t="s">
         <v>2426</v>
       </c>
@@ -25132,7 +25451,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5" t="s">
         <v>2427</v>
       </c>
@@ -25161,7 +25480,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5" t="s">
         <v>2428</v>
       </c>
@@ -25190,7 +25509,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5" t="s">
         <v>2429</v>
       </c>
@@ -25219,7 +25538,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5" t="s">
         <v>2430</v>
       </c>
@@ -25248,7 +25567,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5" t="s">
         <v>2431</v>
       </c>
@@ -25277,7 +25596,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5" t="s">
         <v>2432</v>
       </c>
@@ -25306,7 +25625,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5" t="s">
         <v>2433</v>
       </c>
@@ -25335,7 +25654,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
         <v>2434</v>
       </c>
@@ -25364,7 +25683,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5" t="s">
         <v>2435</v>
       </c>
@@ -25393,7 +25712,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5" t="s">
         <v>2436</v>
       </c>
@@ -25422,7 +25741,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5" t="s">
         <v>2437</v>
       </c>
@@ -25451,7 +25770,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5" t="s">
         <v>2438</v>
       </c>
@@ -25480,7 +25799,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5" t="s">
         <v>2439</v>
       </c>
@@ -25509,7 +25828,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5" t="s">
         <v>2440</v>
       </c>
@@ -25538,7 +25857,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5" t="s">
         <v>2441</v>
       </c>
@@ -25567,7 +25886,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5" t="s">
         <v>2442</v>
       </c>
@@ -25596,7 +25915,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5" t="s">
         <v>2443</v>
       </c>
@@ -25625,7 +25944,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5" t="s">
         <v>2444</v>
       </c>
@@ -25654,7 +25973,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5" t="s">
         <v>2445</v>
       </c>
@@ -25683,7 +26002,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5" t="s">
         <v>2446</v>
       </c>
@@ -25712,7 +26031,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5" t="s">
         <v>2447</v>
       </c>
@@ -25741,7 +26060,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5" t="s">
         <v>2448</v>
       </c>
@@ -25770,7 +26089,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5" t="s">
         <v>2449</v>
       </c>
@@ -25799,7 +26118,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5" t="s">
         <v>2450</v>
       </c>
@@ -25828,7 +26147,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
         <v>2451</v>
       </c>
@@ -25857,7 +26176,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5" t="s">
         <v>2452</v>
       </c>
@@ -25886,7 +26205,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5" t="s">
         <v>2453</v>
       </c>
@@ -25915,7 +26234,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5" t="s">
         <v>2454</v>
       </c>
@@ -25944,7 +26263,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5" t="s">
         <v>2455</v>
       </c>
@@ -25973,7 +26292,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5" t="s">
         <v>2456</v>
       </c>
@@ -26002,7 +26321,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5" t="s">
         <v>2457</v>
       </c>
@@ -26031,7 +26350,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5" t="s">
         <v>2458</v>
       </c>
@@ -26060,7 +26379,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5" t="s">
         <v>2459</v>
       </c>
@@ -26089,7 +26408,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5" t="s">
         <v>2460</v>
       </c>
@@ -26118,7 +26437,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5" t="s">
         <v>2461</v>
       </c>
@@ -26147,7 +26466,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5" t="s">
         <v>2462</v>
       </c>
@@ -26176,7 +26495,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5" t="s">
         <v>2463</v>
       </c>
@@ -26205,7 +26524,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5" t="s">
         <v>2464</v>
       </c>
@@ -26234,7 +26553,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5" t="s">
         <v>2465</v>
       </c>
@@ -26263,7 +26582,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5" t="s">
         <v>2466</v>
       </c>
@@ -26292,7 +26611,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5" t="s">
         <v>2467</v>
       </c>
@@ -26321,7 +26640,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5" t="s">
         <v>2468</v>
       </c>
@@ -26350,7 +26669,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5" t="s">
         <v>2469</v>
       </c>
@@ -26379,7 +26698,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5" t="s">
         <v>2470</v>
       </c>
@@ -26408,7 +26727,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5" t="s">
         <v>2471</v>
       </c>
@@ -26437,7 +26756,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5" t="s">
         <v>2083</v>
       </c>
@@ -26466,7 +26785,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5" t="s">
         <v>2472</v>
       </c>
@@ -26495,7 +26814,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="5" t="s">
         <v>2473</v>
       </c>
@@ -26524,7 +26843,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5" t="s">
         <v>2474</v>
       </c>
@@ -26553,7 +26872,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5" t="s">
         <v>2475</v>
       </c>
@@ -26582,7 +26901,7 @@
         <v>6.1406700000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5" t="s">
         <v>2476</v>
       </c>
@@ -26611,7 +26930,7 @@
         <v>5.85764</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="5" t="s">
         <v>2477</v>
       </c>
@@ -26640,7 +26959,7 @@
         <v>6.5305780000000002</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5" t="s">
         <v>2478</v>
       </c>
@@ -26669,7 +26988,7 @@
         <v>4.7013769999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="5" t="s">
         <v>2479</v>
       </c>
@@ -26698,7 +27017,7 @@
         <v>6.5305780000000002</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5" t="s">
         <v>2480</v>
       </c>
@@ -26727,7 +27046,7 @@
         <v>6.7287179999999998</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="5" t="s">
         <v>2481</v>
       </c>
@@ -26756,7 +27075,7 @@
         <v>6.8275170000000003</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5" t="s">
         <v>2482</v>
       </c>
@@ -26785,7 +27104,7 @@
         <v>6.7982120000000004</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="5" t="s">
         <v>2483</v>
       </c>
@@ -26814,7 +27133,7 @@
         <v>-1.201584</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5" t="s">
         <v>2484</v>
       </c>
@@ -26843,7 +27162,7 @@
         <v>6.8482849999999997</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="5" t="s">
         <v>2485</v>
       </c>
@@ -26872,7 +27191,7 @@
         <v>6.0440189999999996</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5" t="s">
         <v>2486</v>
       </c>
@@ -26901,7 +27220,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="5" t="s">
         <v>2487</v>
       </c>
@@ -26930,7 +27249,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5" t="s">
         <v>2479</v>
       </c>
@@ -26959,7 +27278,7 @@
         <v>6.5305780000000002</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5" t="s">
         <v>2488</v>
       </c>
@@ -27008,7 +27327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="5" t="s">
         <v>2490</v>
       </c>
@@ -27037,7 +27356,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5" t="s">
         <v>2491</v>
       </c>
@@ -27066,7 +27385,7 @@
         <v>-89.620616999999996</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="5" t="s">
         <v>2492</v>
       </c>
@@ -27095,7 +27414,7 @@
         <v>-89.611783000000003</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5" t="s">
         <v>2493</v>
       </c>
@@ -27124,7 +27443,7 @@
         <v>-89.606183000000001</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="5" t="s">
         <v>2109</v>
       </c>
@@ -27153,7 +27472,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5" t="s">
         <v>2494</v>
       </c>
@@ -27182,7 +27501,7 @@
         <v>-89.360860000000002</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="5" t="s">
         <v>2495</v>
       </c>
@@ -27211,7 +27530,7 @@
         <v>-89.701183</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5" t="s">
         <v>2496</v>
       </c>
@@ -27240,7 +27559,7 @@
         <v>-89.686283000000003</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="5" t="s">
         <v>2497</v>
       </c>
@@ -27269,7 +27588,7 @@
         <v>-89.665017000000006</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5" t="s">
         <v>2498</v>
       </c>
@@ -27298,7 +27617,7 @@
         <v>-89.424989999999994</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5" t="s">
         <v>2063</v>
       </c>
@@ -27327,7 +27646,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5" t="s">
         <v>2183</v>
       </c>
@@ -27349,8 +27668,14 @@
       <c r="G679" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H679" s="6" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I679" s="6" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="5" t="s">
         <v>2499</v>
       </c>
@@ -27379,7 +27704,7 @@
         <v>10.757933</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5" t="s">
         <v>2500</v>
       </c>
@@ -27408,7 +27733,7 @@
         <v>-121.47885100000001</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="5" t="s">
         <v>2501</v>
       </c>
@@ -27437,7 +27762,7 @@
         <v>-76.210250000000002</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5" t="s">
         <v>2501</v>
       </c>
@@ -27466,7 +27791,7 @@
         <v>-76.210250000000002</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="5" t="s">
         <v>2240</v>
       </c>
@@ -27495,7 +27820,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5" t="s">
         <v>2240</v>
       </c>
@@ -27524,7 +27849,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="5" t="s">
         <v>2502</v>
       </c>
@@ -27550,7 +27875,7 @@
         <v>19.227253000000001</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5" t="s">
         <v>2503</v>
       </c>
@@ -27572,8 +27897,14 @@
       <c r="G687" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H687" s="6" t="s">
+        <v>2569</v>
+      </c>
+      <c r="I687" s="6" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="5" t="s">
         <v>2224</v>
       </c>
@@ -27595,8 +27926,14 @@
       <c r="G688" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H688" s="6" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I688" s="6" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5" t="s">
         <v>2504</v>
       </c>
@@ -27625,7 +27962,7 @@
         <v>7.1696309999999999</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="5" t="s">
         <v>2505</v>
       </c>
@@ -27647,8 +27984,14 @@
       <c r="G690" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H690" s="6" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I690" s="6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5" t="s">
         <v>2258</v>
       </c>
@@ -27670,8 +28013,14 @@
       <c r="G691" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H691" s="6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I691" s="6" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="5" t="s">
         <v>2505</v>
       </c>
@@ -27693,8 +28042,14 @@
       <c r="G692" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H692" s="6" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I692" s="6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5" t="s">
         <v>2258</v>
       </c>
@@ -27716,8 +28071,14 @@
       <c r="G693" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H693" s="6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I693" s="6" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="5" t="s">
         <v>2505</v>
       </c>
@@ -27739,8 +28100,14 @@
       <c r="G694" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H694" s="6" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I694" s="6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5" t="s">
         <v>2258</v>
       </c>
@@ -27762,8 +28129,14 @@
       <c r="G695" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H695" s="6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I695" s="6" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="5" t="s">
         <v>2505</v>
       </c>
@@ -27785,8 +28158,14 @@
       <c r="G696" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H696" s="6" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I696" s="6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5" t="s">
         <v>2258</v>
       </c>
@@ -27808,8 +28187,14 @@
       <c r="G697" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H697" s="6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I697" s="6" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="5" t="s">
         <v>2506</v>
       </c>
@@ -27838,7 +28223,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5" t="s">
         <v>2506</v>
       </c>
@@ -27867,7 +28252,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="5" t="s">
         <v>2505</v>
       </c>
@@ -27889,8 +28274,14 @@
       <c r="G700" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H700" s="6" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I700" s="6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5" t="s">
         <v>2258</v>
       </c>
@@ -27912,8 +28303,14 @@
       <c r="G701" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H701" s="6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I701" s="6" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="5" t="s">
         <v>2507</v>
       </c>
@@ -27935,8 +28332,14 @@
       <c r="G702" s="5" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H702" s="6" t="s">
+        <v>2613</v>
+      </c>
+      <c r="I702" s="6" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5" t="s">
         <v>2508</v>
       </c>
@@ -27965,7 +28368,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="5" t="s">
         <v>2505</v>
       </c>
@@ -27987,8 +28390,14 @@
       <c r="G704" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H704" s="6" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I704" s="6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5" t="s">
         <v>2258</v>
       </c>
@@ -28010,8 +28419,14 @@
       <c r="G705" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H705" s="6" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I705" s="6" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="5" t="s">
         <v>2273</v>
       </c>
@@ -28040,7 +28455,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5" t="s">
         <v>2509</v>
       </c>
@@ -28069,7 +28484,7 @@
         <v>78.133332999999993</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="5" t="s">
         <v>2510</v>
       </c>
@@ -28098,7 +28513,7 @@
         <v>-92.145172000000002</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5" t="s">
         <v>2511</v>
       </c>
@@ -28127,7 +28542,7 @@
         <v>-92.300404999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="5" t="s">
         <v>2049</v>
       </c>
@@ -28156,7 +28571,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5" t="s">
         <v>2512</v>
       </c>
@@ -28185,7 +28600,7 @@
         <v>5.7994310000000002</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="5" t="s">
         <v>2512</v>
       </c>
@@ -28214,7 +28629,7 @@
         <v>5.7994310000000002</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5" t="s">
         <v>2050</v>
       </c>
@@ -28243,7 +28658,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="5" t="s">
         <v>2049</v>
       </c>
@@ -28272,7 +28687,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5" t="s">
         <v>1987</v>
       </c>
@@ -28301,7 +28716,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="5" t="s">
         <v>2166</v>
       </c>
@@ -28330,7 +28745,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5" t="s">
         <v>2269</v>
       </c>
@@ -28359,7 +28774,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="5" t="s">
         <v>2513</v>
       </c>
@@ -28388,7 +28803,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5" t="s">
         <v>2514</v>
       </c>
@@ -28417,7 +28832,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="5" t="s">
         <v>2515</v>
       </c>
@@ -28446,7 +28861,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5" t="s">
         <v>2291</v>
       </c>
@@ -28475,7 +28890,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="5" t="s">
         <v>2516</v>
       </c>
@@ -28504,7 +28919,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5" t="s">
         <v>2245</v>
       </c>
@@ -28533,7 +28948,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="5" t="s">
         <v>2119</v>
       </c>
@@ -28562,7 +28977,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5" t="s">
         <v>2517</v>
       </c>
@@ -28591,7 +29006,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="5" t="s">
         <v>2518</v>
       </c>
@@ -28620,7 +29035,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5" t="s">
         <v>2216</v>
       </c>
@@ -28642,8 +29057,14 @@
       <c r="G727" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H727" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="I727" s="6" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="5" t="s">
         <v>2233</v>
       </c>
@@ -28672,7 +29093,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5" t="s">
         <v>2255</v>
       </c>
@@ -28701,7 +29122,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5" t="s">
         <v>2050</v>
       </c>
@@ -28730,7 +29151,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5" t="s">
         <v>2519</v>
       </c>
@@ -28759,7 +29180,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="5" t="s">
         <v>2273</v>
       </c>
@@ -28788,7 +29209,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5" t="s">
         <v>2229</v>
       </c>
@@ -28817,7 +29238,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" s="5" t="s">
         <v>2520</v>
       </c>
@@ -28869,7 +29290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="5" t="s">
         <v>2522</v>
       </c>
@@ -28891,8 +29312,14 @@
       <c r="G736" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H736" s="6" t="s">
+        <v>2579</v>
+      </c>
+      <c r="I736" s="6" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5" t="s">
         <v>2523</v>
       </c>
@@ -28911,8 +29338,14 @@
       <c r="G737" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H737" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I737" s="6" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="5" t="s">
         <v>2523</v>
       </c>
@@ -28931,8 +29364,14 @@
       <c r="G738" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H738" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I738" s="6" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5" t="s">
         <v>2523</v>
       </c>
@@ -28950,6 +29389,12 @@
       </c>
       <c r="G739" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="H739" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I739" s="6" t="s">
+        <v>2602</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.2">
@@ -28968,8 +29413,14 @@
       <c r="E740" s="5" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F740" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G740" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5" t="s">
         <v>2525</v>
       </c>
@@ -28991,8 +29442,14 @@
       <c r="G741" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H741" s="6" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I741" s="6" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="5" t="s">
         <v>2526</v>
       </c>
@@ -29021,7 +29478,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5" t="s">
         <v>2527</v>
       </c>
@@ -29050,7 +29507,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="5" t="s">
         <v>2528</v>
       </c>
@@ -29072,8 +29529,14 @@
       <c r="G744" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H744" s="6" t="s">
+        <v>2597</v>
+      </c>
+      <c r="I744" s="6" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5" t="s">
         <v>2529</v>
       </c>
@@ -29102,7 +29565,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="5" t="s">
         <v>2530</v>
       </c>
@@ -29131,7 +29594,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5" t="s">
         <v>2096</v>
       </c>
@@ -29152,6 +29615,12 @@
       </c>
       <c r="G747" s="5" t="s">
         <v>330</v>
+      </c>
+      <c r="H747" s="6" t="s">
+        <v>2567</v>
+      </c>
+      <c r="I747" s="6" t="s">
+        <v>2568</v>
       </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.2">
@@ -29174,7 +29643,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5" t="s">
         <v>2053</v>
       </c>
@@ -29203,7 +29672,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="5" t="s">
         <v>2532</v>
       </c>
@@ -29232,7 +29701,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5" t="s">
         <v>2533</v>
       </c>
@@ -29261,7 +29730,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="5" t="s">
         <v>2534</v>
       </c>
@@ -29283,8 +29752,14 @@
       <c r="G752" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H752" s="6" t="s">
+        <v>2611</v>
+      </c>
+      <c r="I752" s="6" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5" t="s">
         <v>2539</v>
       </c>
@@ -29313,7 +29788,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="5" t="s">
         <v>2516</v>
       </c>
@@ -29342,7 +29817,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5" t="s">
         <v>1979</v>
       </c>
@@ -29371,7 +29846,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="5" t="s">
         <v>2022</v>
       </c>
@@ -29439,7 +29914,7 @@
       <c r="H758" s="15"/>
       <c r="I758" s="15"/>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5" t="s">
         <v>2553</v>
       </c>
@@ -29461,8 +29936,14 @@
       <c r="G759" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H759" s="6" t="s">
+        <v>2571</v>
+      </c>
+      <c r="I759" s="6" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="5" t="s">
         <v>2554</v>
       </c>
@@ -29484,8 +29965,14 @@
       <c r="G760" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H760" s="6" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I760" s="6" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5" t="s">
         <v>2557</v>
       </c>
@@ -29514,7 +30001,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="5" t="s">
         <v>2025</v>
       </c>
@@ -29543,7 +30030,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5" t="s">
         <v>2026</v>
       </c>
@@ -29572,7 +30059,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="5" t="s">
         <v>2027</v>
       </c>
@@ -29601,7 +30088,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5" t="s">
         <v>2050</v>
       </c>
@@ -29630,7 +30117,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="5" t="s">
         <v>2562</v>
       </c>
@@ -29710,7 +30197,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="5" t="s">
         <v>2193</v>
       </c>
@@ -29739,7 +30226,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5" t="s">
         <v>2566</v>
       </c>
@@ -29769,7 +30256,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I771" xr:uid="{3CF586FE-D329-5147-97C1-F707C19E06F5}"/>
+  <autoFilter ref="A1:I771" xr:uid="{3CF586FE-D329-5147-97C1-F707C19E06F5}">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
